--- a/pred_ohlcv/54_21/2019-10-26 XMR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 XMR ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-36.14223538120001</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-37.26143538120001</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-58.25793538120001</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-55.14073538120002</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-46.43293538120002</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-46.43293538120002</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-64.32293538120001</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-5.959777102572012</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-5.082377102572012</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-5.097377102572012</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>14.45902289742799</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>14.45902289742799</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>14.45902289742799</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>15.13902289742799</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -834,7 +834,7 @@
         <v>18.06802289742799</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>19.33502289742799</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>68.01692289742799</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>65.41972289742799</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>71.74682289742799</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>75.94322289742799</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>106.452622897428</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>69.39622289742799</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>69.39622289742799</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>9.977822897427991</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>9.977822897427991</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>7.158222897427992</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>18.88182289742799</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>18.98182289742799</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>18.88182289742799</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>18.98182289742799</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>18.98182289742799</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>18.73212289742799</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>21.80112289742799</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>30.87472289742799</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>31.36962289742799</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>34.06692289742799</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>22.44362289742799</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>28.23372289742799</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>28.23372289742799</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>28.32022289742799</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>28.93553536280099</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>29.95783536280099</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>30.33143536280099</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-133.694164637199</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>38.68822289742801</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>24.684522897428</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>3.511422897428002</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>4.064411222979</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>13.308011222979</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>19.902211222979</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>20.102211222979</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>20.102211222979</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>19.855511222979</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-11.208988777021</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-12.008988777021</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>0.9892112229790009</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>0.9892112229790009</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>0.9892112229790009</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-0.01078877702099912</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-5.715810755041999</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-14.597210755042</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-16.43629943242702</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-16.43629943242702</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-15.11939943242702</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-14.66939943242702</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-14.66939943242702</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-13.81799943242702</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>123.575900567573</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>123.575900567573</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>134.975900567573</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>132.905900567573</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>132.555900567573</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>130.065900567573</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>124.932300567573</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>121.574300567573</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>117.291600567573</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>123.619900567573</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>126.406000567573</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>125.135000567573</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>126.478494017354</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>126.172294017354</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>128.885894017354</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>129.885894017354</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>130.209894017354</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>130.209894017354</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>128.215894017354</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>128.215894017354</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>128.357294017354</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>128.657294017354</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>129.944294017354</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>125.416394017354</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>156.430147640542</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>155.000347640542</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>152.410347640542</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>147.010843286405</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>146.810843286405</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>133.071643286405</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>145.471643286405</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>145.006243286405</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>145.205343286405</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>144.545743286405</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>150.385643286405</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>156.909643286405</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>154.083643286405</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>148.794443286405</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>157.539643286405</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>155.714243286405</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>157.090443286405</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-26 XMR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 XMR ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-36.14223538120001</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-37.26143538120001</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-58.25793538120001</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-55.14073538120002</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-46.43293538120002</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-46.43293538120002</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-64.32293538120001</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-5.959777102572012</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-5.082377102572012</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-5.097377102572012</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>14.45902289742799</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>14.45902289742799</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>14.45902289742799</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>15.13902289742799</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -834,7 +834,7 @@
         <v>18.06802289742799</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>19.33502289742799</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>68.01692289742799</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>65.41972289742799</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>71.74682289742799</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>75.94322289742799</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>106.452622897428</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>69.39622289742799</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>69.39622289742799</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>9.977822897427991</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>9.977822897427991</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>7.158222897427992</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>18.88182289742799</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>18.98182289742799</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>18.88182289742799</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>18.98182289742799</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>18.98182289742799</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>18.73212289742799</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>21.80112289742799</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>30.87472289742799</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>31.36962289742799</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>34.06692289742799</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>28.23372289742799</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>28.23372289742799</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>28.32022289742799</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>28.93553536280099</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-134.101864637199</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-133.694164637199</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-130.346277102572</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>38.68822289742801</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>38.68822289742801</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>24.684522897428</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>17.052822897428</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>3.511422897428002</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>12.047522897428</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>6.604011222979</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>19.902211222979</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>0.9892112229790009</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>0.9892112229790009</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>0.9892112229790009</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-0.01078877702099912</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-117.736609417956</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-120.144609417956</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-47.34340941795601</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-45.34340941795601</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-45.34340941795601</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-45.29340941795601</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-46.15940941795601</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-44.49940941795602</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-54.80529943242702</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-55.54399943242702</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-52.03699943242702</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-49.79039943242702</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-49.76849943242702</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-16.43629943242702</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-13.77119943242702</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-13.77119943242702</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-13.77119943242702</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-13.77119943242702</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>138.455900567573</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>145.782900567573</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>147.895600567573</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>123.575900567573</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>123.575900567573</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>123.575900567573</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>134.975900567573</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>132.905900567573</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>132.555900567573</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>130.065900567573</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>124.932300567573</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>121.574300567573</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>117.291600567573</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>123.619900567573</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>126.406000567573</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>125.135000567573</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>126.478494017354</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>129.885894017354</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>128.357294017354</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
